--- a/public/file_publikasi/publikasi_template.xlsx
+++ b/public/file_publikasi/publikasi_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web Manajemen Data LPPM\Sistem-Manajemen-Data-LPPM\public\file_publikasi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E198F7-F6C1-4E05-AC51-66F5498F264A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D321A8C7-F63D-414C-ABEF-A6158C72CF4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{4D37228D-374D-4CDE-BF8B-913D96AC711D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4D37228D-374D-4CDE-BF8B-913D96AC711D}"/>
   </bookViews>
   <sheets>
     <sheet name="PUBLIKASI" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Judul Publikasi</t>
   </si>
@@ -53,27 +53,18 @@
     <t>Nama Penulis Koresponding</t>
   </si>
   <si>
-    <t>Prodi</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
     <t>Afiliasi</t>
   </si>
   <si>
-    <t>Prodi1</t>
-  </si>
-  <si>
     <t>Status1</t>
   </si>
   <si>
     <t>Afiliasi1</t>
   </si>
   <si>
-    <t>Prodi6</t>
-  </si>
-  <si>
     <t>Status3</t>
   </si>
   <si>
@@ -86,15 +77,9 @@
     <t>Status6</t>
   </si>
   <si>
-    <t>Nama Penulis Lain</t>
-  </si>
-  <si>
     <t>DOI</t>
   </si>
   <si>
-    <t>Prodi2</t>
-  </si>
-  <si>
     <t>Status2</t>
   </si>
   <si>
@@ -104,33 +89,15 @@
     <t>Afiliasi3</t>
   </si>
   <si>
-    <t>Prodi4</t>
-  </si>
-  <si>
     <t>Afiliasi4</t>
   </si>
   <si>
-    <t>Prodi5</t>
-  </si>
-  <si>
     <t>Afiliasi5</t>
   </si>
   <si>
     <t>Afiliasi6</t>
   </si>
   <si>
-    <t>Prodi3</t>
-  </si>
-  <si>
-    <t>Prodi Lain</t>
-  </si>
-  <si>
-    <t>Status Lain</t>
-  </si>
-  <si>
-    <t>Afiliasi Lain</t>
-  </si>
-  <si>
     <t>Akreditasi/Index Jurnal</t>
   </si>
   <si>
@@ -150,6 +117,15 @@
   </si>
   <si>
     <t>Nama Penulis6</t>
+  </si>
+  <si>
+    <t>Nama Penulis7</t>
+  </si>
+  <si>
+    <t>Status7</t>
+  </si>
+  <si>
+    <t>Afiliasi7</t>
   </si>
 </sst>
 </file>
@@ -578,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A106F2E-AB4A-4CDB-BBA3-4FED208D2F25}">
-  <dimension ref="A1:AL1"/>
+  <dimension ref="A1:AD1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AI4" sqref="AI4"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AD2" sqref="AD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -592,29 +568,24 @@
     <col min="4" max="4" width="22.88671875" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" customWidth="1"/>
-    <col min="8" max="8" width="21" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" customWidth="1"/>
-    <col min="12" max="12" width="20.33203125" customWidth="1"/>
-    <col min="13" max="14" width="9" customWidth="1"/>
-    <col min="15" max="15" width="19.6640625" customWidth="1"/>
-    <col min="16" max="16" width="16.44140625" customWidth="1"/>
-    <col min="17" max="17" width="12.5546875" customWidth="1"/>
-    <col min="18" max="18" width="19.44140625" customWidth="1"/>
-    <col min="19" max="19" width="10" customWidth="1"/>
-    <col min="20" max="20" width="11.44140625" customWidth="1"/>
-    <col min="21" max="21" width="24.33203125" customWidth="1"/>
-    <col min="22" max="23" width="10" customWidth="1"/>
-    <col min="24" max="24" width="19" customWidth="1"/>
-    <col min="25" max="26" width="12.44140625" customWidth="1"/>
-    <col min="27" max="27" width="17" customWidth="1"/>
-    <col min="28" max="29" width="11.44140625" customWidth="1"/>
-    <col min="30" max="30" width="34.33203125" customWidth="1"/>
+    <col min="7" max="7" width="21" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
+    <col min="10" max="10" width="20.33203125" customWidth="1"/>
+    <col min="11" max="12" width="9" customWidth="1"/>
+    <col min="13" max="13" width="16.44140625" customWidth="1"/>
+    <col min="14" max="14" width="12.5546875" customWidth="1"/>
+    <col min="15" max="15" width="19.44140625" customWidth="1"/>
+    <col min="16" max="16" width="11.44140625" customWidth="1"/>
+    <col min="17" max="17" width="24.33203125" customWidth="1"/>
+    <col min="18" max="18" width="10" customWidth="1"/>
+    <col min="19" max="19" width="19" customWidth="1"/>
+    <col min="20" max="21" width="12.44140625" customWidth="1"/>
+    <col min="22" max="23" width="11.44140625" customWidth="1"/>
+    <col min="24" max="24" width="34.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="2" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" s="2" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -622,7 +593,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -640,94 +611,70 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="X1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="S1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -736,7 +683,7 @@
     <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:AL1" xr:uid="{26A0EE44-7E1D-42D8-A982-17D78265FF70}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:AD1" xr:uid="{26A0EE44-7E1D-42D8-A982-17D78265FF70}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
